--- a/sources/data/maindata_.xlsx
+++ b/sources/data/maindata_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/4_queue/20200130-mpls_schools/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A754E77-D640-DF42-B6D6-C696B3D3E78C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E0BD1-6687-3243-9B34-AE164C92F525}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="4280" windowWidth="29660" windowHeight="14760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2363,7 +2363,7 @@
         <v>10</v>
       </c>
       <c r="BL2" t="str">
-        <f>PROPER(H2)</f>
+        <f t="shared" ref="BL2:BL43" si="0">PROPER(H2)</f>
         <v>Andersen Community</v>
       </c>
       <c r="BM2">
@@ -2570,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="BL3" t="str">
-        <f>PROPER(H3)</f>
+        <f t="shared" si="0"/>
         <v>Anishinabe Academy</v>
       </c>
       <c r="BM3">
@@ -2783,7 +2783,7 @@
         <v>10</v>
       </c>
       <c r="BL4" t="str">
-        <f>PROPER(H4)</f>
+        <f t="shared" si="0"/>
         <v>Armatage Elementary</v>
       </c>
       <c r="BM4">
@@ -2996,7 +2996,7 @@
         <v>10</v>
       </c>
       <c r="BL5" t="str">
-        <f>PROPER(H5)</f>
+        <f t="shared" si="0"/>
         <v>Bancroft Elementary</v>
       </c>
       <c r="BM5">
@@ -3209,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="BL6" t="str">
-        <f>PROPER(H6)</f>
+        <f t="shared" si="0"/>
         <v>Barton Open Elementary</v>
       </c>
       <c r="BM6">
@@ -3416,7 +3416,7 @@
         <v>10</v>
       </c>
       <c r="BL7" t="str">
-        <f>PROPER(H7)</f>
+        <f t="shared" si="0"/>
         <v>Bethune Elementary</v>
       </c>
       <c r="BM7">
@@ -3629,7 +3629,7 @@
         <v>10</v>
       </c>
       <c r="BL8" t="str">
-        <f>PROPER(H8)</f>
+        <f t="shared" si="0"/>
         <v>Bryn Mawr Elementary</v>
       </c>
       <c r="BM8">
@@ -3843,7 +3843,7 @@
         <v>10</v>
       </c>
       <c r="BL9" t="str">
-        <f>PROPER(H9)</f>
+        <f t="shared" si="0"/>
         <v>Burroughs Elementary</v>
       </c>
       <c r="BM9">
@@ -4050,7 +4050,7 @@
         <v>10</v>
       </c>
       <c r="BL10" t="str">
-        <f>PROPER(H10)</f>
+        <f t="shared" si="0"/>
         <v>Cityview Community</v>
       </c>
       <c r="BM10">
@@ -4263,7 +4263,7 @@
         <v>10</v>
       </c>
       <c r="BL11" t="str">
-        <f>PROPER(H11)</f>
+        <f t="shared" si="0"/>
         <v>Dowling Elementary</v>
       </c>
       <c r="BM11">
@@ -4476,7 +4476,7 @@
         <v>10</v>
       </c>
       <c r="BL12" t="str">
-        <f>PROPER(H12)</f>
+        <f t="shared" si="0"/>
         <v>Emerson Elementary</v>
       </c>
       <c r="BM12">
@@ -4689,7 +4689,7 @@
         <v>10</v>
       </c>
       <c r="BL13" t="str">
-        <f>PROPER(H13)</f>
+        <f t="shared" si="0"/>
         <v>Folwell Arts Magnet</v>
       </c>
       <c r="BM13">
@@ -4896,7 +4896,7 @@
         <v>10</v>
       </c>
       <c r="BL14" t="str">
-        <f>PROPER(H14)</f>
+        <f t="shared" si="0"/>
         <v>Green Central Park Elementary</v>
       </c>
       <c r="BM14">
@@ -5109,7 +5109,7 @@
         <v>10</v>
       </c>
       <c r="BL15" t="str">
-        <f>PROPER(H15)</f>
+        <f t="shared" si="0"/>
         <v>Hale Elementary</v>
       </c>
       <c r="BM15">
@@ -5316,7 +5316,7 @@
         <v>10</v>
       </c>
       <c r="BL16" t="str">
-        <f>PROPER(H16)</f>
+        <f t="shared" si="0"/>
         <v>Hall International</v>
       </c>
       <c r="BM16">
@@ -5529,7 +5529,7 @@
         <v>10</v>
       </c>
       <c r="BL17" t="str">
-        <f>PROPER(H17)</f>
+        <f t="shared" si="0"/>
         <v>Hiawatha Elementary</v>
       </c>
       <c r="BM17">
@@ -5742,7 +5742,7 @@
         <v>10</v>
       </c>
       <c r="BL18" t="str">
-        <f>PROPER(H18)</f>
+        <f t="shared" si="0"/>
         <v>Hmong International Academy</v>
       </c>
       <c r="BM18">
@@ -5955,7 +5955,7 @@
         <v>10</v>
       </c>
       <c r="BL19" t="str">
-        <f>PROPER(H19)</f>
+        <f t="shared" si="0"/>
         <v>Howe Elementary</v>
       </c>
       <c r="BM19">
@@ -6162,7 +6162,7 @@
         <v>10</v>
       </c>
       <c r="BL20" t="str">
-        <f>PROPER(H20)</f>
+        <f t="shared" si="0"/>
         <v>Jefferson Elementary</v>
       </c>
       <c r="BM20">
@@ -6369,7 +6369,7 @@
         <v>10</v>
       </c>
       <c r="BL21" t="str">
-        <f>PROPER(H21)</f>
+        <f t="shared" si="0"/>
         <v>Jenny Lind Elementary</v>
       </c>
       <c r="BM21">
@@ -6582,7 +6582,7 @@
         <v>10</v>
       </c>
       <c r="BL22" t="str">
-        <f>PROPER(H22)</f>
+        <f t="shared" si="0"/>
         <v>Kenny Elementary</v>
       </c>
       <c r="BM22">
@@ -6795,7 +6795,7 @@
         <v>10</v>
       </c>
       <c r="BL23" t="str">
-        <f>PROPER(H23)</f>
+        <f t="shared" si="0"/>
         <v>Kenwood Elementary</v>
       </c>
       <c r="BM23">
@@ -7008,7 +7008,7 @@
         <v>10</v>
       </c>
       <c r="BL24" t="str">
-        <f>PROPER(H24)</f>
+        <f t="shared" si="0"/>
         <v>Lake Harriet Lower Elementary</v>
       </c>
       <c r="BM24">
@@ -7221,7 +7221,7 @@
         <v>10</v>
       </c>
       <c r="BL25" t="str">
-        <f>PROPER(H25)</f>
+        <f t="shared" si="0"/>
         <v>Lake Harriet Upper School</v>
       </c>
       <c r="BM25">
@@ -7434,7 +7434,7 @@
         <v>10</v>
       </c>
       <c r="BL26" t="str">
-        <f>PROPER(H26)</f>
+        <f t="shared" si="0"/>
         <v>Lake Nokomis Comm-Keewaydin Campus</v>
       </c>
       <c r="BM26">
@@ -7647,7 +7647,7 @@
         <v>10</v>
       </c>
       <c r="BL27" t="str">
-        <f>PROPER(H27)</f>
+        <f t="shared" si="0"/>
         <v>Lake Nokomis Comm-Wenonah Campus</v>
       </c>
       <c r="BM27">
@@ -7860,7 +7860,7 @@
         <v>10</v>
       </c>
       <c r="BL28" t="str">
-        <f>PROPER(H28)</f>
+        <f t="shared" si="0"/>
         <v>Loring Elementary</v>
       </c>
       <c r="BM28">
@@ -8073,7 +8073,7 @@
         <v>10</v>
       </c>
       <c r="BL29" t="str">
-        <f>PROPER(H29)</f>
+        <f t="shared" si="0"/>
         <v>Lucy Laney @ Cleveland Park Elem.</v>
       </c>
       <c r="BM29">
@@ -8286,7 +8286,7 @@
         <v>10</v>
       </c>
       <c r="BL30" t="str">
-        <f>PROPER(H30)</f>
+        <f t="shared" si="0"/>
         <v>Lyndale Elementary</v>
       </c>
       <c r="BM30">
@@ -8499,7 +8499,7 @@
         <v>10</v>
       </c>
       <c r="BL31" t="str">
-        <f>PROPER(H31)</f>
+        <f t="shared" si="0"/>
         <v>Marcy Open Elementary</v>
       </c>
       <c r="BM31">
@@ -8706,7 +8706,7 @@
         <v>10</v>
       </c>
       <c r="BL32" t="str">
-        <f>PROPER(H32)</f>
+        <f t="shared" si="0"/>
         <v>Nellie Stone Johnson Elementary</v>
       </c>
       <c r="BM32">
@@ -8919,7 +8919,7 @@
         <v>10</v>
       </c>
       <c r="BL33" t="str">
-        <f>PROPER(H33)</f>
+        <f t="shared" si="0"/>
         <v>Northrop Elementary</v>
       </c>
       <c r="BM33">
@@ -9132,7 +9132,7 @@
         <v>10</v>
       </c>
       <c r="BL34" t="str">
-        <f>PROPER(H34)</f>
+        <f t="shared" si="0"/>
         <v>Pillsbury Elementary</v>
       </c>
       <c r="BM34">
@@ -9345,7 +9345,7 @@
         <v>10</v>
       </c>
       <c r="BL35" t="str">
-        <f>PROPER(H35)</f>
+        <f t="shared" si="0"/>
         <v>Pratt Elementary</v>
       </c>
       <c r="BM35">
@@ -9543,7 +9543,7 @@
         <v>10</v>
       </c>
       <c r="BL36" t="str">
-        <f>PROPER(H36)</f>
+        <f t="shared" si="0"/>
         <v>Prekindergarten North</v>
       </c>
       <c r="BM36">
@@ -9756,7 +9756,7 @@
         <v>10</v>
       </c>
       <c r="BL37" t="str">
-        <f>PROPER(H37)</f>
+        <f t="shared" si="0"/>
         <v>Seward Elementary</v>
       </c>
       <c r="BM37">
@@ -9969,7 +9969,7 @@
         <v>10</v>
       </c>
       <c r="BL38" t="str">
-        <f>PROPER(H38)</f>
+        <f t="shared" si="0"/>
         <v>Sheridan Elementary</v>
       </c>
       <c r="BM38">
@@ -10182,7 +10182,7 @@
         <v>10</v>
       </c>
       <c r="BL39" t="str">
-        <f>PROPER(H39)</f>
+        <f t="shared" si="0"/>
         <v>Sullivan Elementary</v>
       </c>
       <c r="BM39">
@@ -10395,7 +10395,7 @@
         <v>10</v>
       </c>
       <c r="BL40" t="str">
-        <f>PROPER(H40)</f>
+        <f t="shared" si="0"/>
         <v>Waite Park Elementary</v>
       </c>
       <c r="BM40">
@@ -10608,7 +10608,7 @@
         <v>10</v>
       </c>
       <c r="BL41" t="str">
-        <f>PROPER(H41)</f>
+        <f t="shared" si="0"/>
         <v>Webster Elementary</v>
       </c>
       <c r="BM41">
@@ -10821,7 +10821,7 @@
         <v>10</v>
       </c>
       <c r="BL42" t="str">
-        <f>PROPER(H42)</f>
+        <f t="shared" si="0"/>
         <v>Whittier International</v>
       </c>
       <c r="BM42">
@@ -11034,7 +11034,7 @@
         <v>10</v>
       </c>
       <c r="BL43" t="str">
-        <f>PROPER(H43)</f>
+        <f t="shared" si="0"/>
         <v>Windom School</v>
       </c>
       <c r="BM43">
@@ -11579,7 +11579,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G40" sqref="G40:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13055,7 +13055,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13104,54 +13104,54 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C2">
-        <v>44.953346000000003</v>
+        <v>44.924546669999998</v>
       </c>
       <c r="D2">
-        <v>-93.258701000000002</v>
+        <v>-93.226871669999994</v>
       </c>
       <c r="E2" t="s">
         <v>250</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J2">
-        <v>817</v>
+        <v>488</v>
       </c>
       <c r="K2">
-        <v>1533</v>
+        <v>395</v>
       </c>
       <c r="L2" s="11">
-        <v>0.53294194390084804</v>
+        <v>1.2354430379746835</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C3">
-        <v>44.89846</v>
+        <v>44.906469677952501</v>
       </c>
       <c r="D3">
-        <v>-93.298940000000002</v>
+        <v>-93.2563534880167</v>
       </c>
       <c r="E3" t="s">
         <v>250</v>
@@ -13169,30 +13169,30 @@
         <v>250</v>
       </c>
       <c r="J3">
-        <v>741</v>
+        <v>656</v>
       </c>
       <c r="K3">
-        <v>850</v>
+        <v>539</v>
       </c>
       <c r="L3" s="11">
-        <v>0.87176470588235289</v>
+        <v>1.2170686456400741</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="C4">
-        <v>44.973633999999997</v>
+        <v>44.896912</v>
       </c>
       <c r="D4">
-        <v>-93.316536999999997</v>
+        <v>-93.280096999999998</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F4" t="s">
         <v>250</v>
@@ -13207,68 +13207,68 @@
         <v>250</v>
       </c>
       <c r="J4">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="K4">
-        <v>896</v>
+        <v>503</v>
       </c>
       <c r="L4" s="11">
-        <v>0.6395089285714286</v>
+        <v>1.2127236580516898</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C5">
-        <v>44.901015000000001</v>
+        <v>44.969570000000097</v>
       </c>
       <c r="D5">
-        <v>-93.311396000000002</v>
+        <v>-93.280825000025303</v>
       </c>
       <c r="E5" t="s">
         <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I5" t="s">
-        <v>250</v>
-      </c>
-      <c r="J5">
-        <v>620</v>
+        <v>248</v>
+      </c>
+      <c r="J5" s="9">
+        <v>515</v>
       </c>
       <c r="K5">
-        <v>575</v>
+        <v>431</v>
       </c>
       <c r="L5" s="11">
-        <v>1.0782608695652174</v>
+        <v>1.1948955916473318</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C6">
-        <v>44.933813999999998</v>
+        <v>44.911929000000001</v>
       </c>
       <c r="D6">
-        <v>-93.255521000000002</v>
+        <v>-93.300443169999994</v>
       </c>
       <c r="E6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
         <v>250</v>
@@ -13283,30 +13283,30 @@
         <v>250</v>
       </c>
       <c r="J6">
-        <v>560</v>
+        <v>738</v>
       </c>
       <c r="K6">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="L6" s="11">
-        <v>0.9364548494983278</v>
+        <v>1.1406491499227203</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C7">
-        <v>44.925452</v>
+        <v>44.899025999999999</v>
       </c>
       <c r="D7">
-        <v>-93.291220999999993</v>
+        <v>-93.295551000000003</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F7" t="s">
         <v>250</v>
@@ -13321,66 +13321,65 @@
         <v>250</v>
       </c>
       <c r="J7">
-        <v>707</v>
+        <v>468</v>
       </c>
       <c r="K7">
-        <v>660</v>
+        <v>413</v>
       </c>
       <c r="L7" s="11">
-        <v>1.0712121212121213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>201</v>
+        <v>1.1331719128329298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C8">
-        <v>44.987651999999997</v>
+        <v>44.929178999999998</v>
       </c>
       <c r="D8">
-        <v>-93.294751000000005</v>
+        <v>-93.326245999999998</v>
       </c>
       <c r="E8" t="s">
         <v>250</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I8" t="s">
-        <v>248</v>
-      </c>
-      <c r="J8" s="9">
-        <v>317</v>
+        <v>250</v>
+      </c>
+      <c r="J8">
+        <v>541</v>
       </c>
       <c r="K8">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="L8" s="11">
-        <f>J8/K8</f>
-        <v>0.61078998073217727</v>
+        <v>1.1270833333333334</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="C9">
-        <v>44.973945999999998</v>
+        <v>45.035468999999999</v>
       </c>
       <c r="D9">
-        <v>-93.316967000000005</v>
+        <v>-93.313057000000001</v>
       </c>
       <c r="E9" t="s">
         <v>250</v>
@@ -13398,27 +13397,27 @@
         <v>250</v>
       </c>
       <c r="J9">
-        <v>348</v>
+        <v>419</v>
       </c>
       <c r="K9">
-        <v>615</v>
+        <v>373</v>
       </c>
       <c r="L9" s="11">
-        <v>0.56585365853658531</v>
+        <v>1.1233243967828419</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="C10">
-        <v>44.911929000000001</v>
+        <v>44.969003000000001</v>
       </c>
       <c r="D10">
-        <v>-93.300443169999994</v>
+        <v>-93.214033999999998</v>
       </c>
       <c r="E10" t="s">
         <v>250</v>
@@ -13436,30 +13435,30 @@
         <v>250</v>
       </c>
       <c r="J10">
-        <v>738</v>
+        <v>319</v>
       </c>
       <c r="K10">
-        <v>647</v>
+        <v>284</v>
       </c>
       <c r="L10" s="11">
-        <v>1.1406491499227203</v>
+        <v>1.1232394366197183</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C11">
-        <v>45.016012670000002</v>
+        <v>44.901015000000001</v>
       </c>
       <c r="D11">
-        <v>-93.284073169999999</v>
+        <v>-93.311396000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F11" t="s">
         <v>250</v>
@@ -13474,30 +13473,30 @@
         <v>250</v>
       </c>
       <c r="J11">
-        <v>345</v>
+        <v>620</v>
       </c>
       <c r="K11">
-        <v>712</v>
+        <v>575</v>
       </c>
       <c r="L11" s="11">
-        <v>0.4845505617977528</v>
+        <v>1.0782608695652174</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C12">
-        <v>44.932245999999999</v>
+        <v>44.925452</v>
       </c>
       <c r="D12">
-        <v>-93.205386000000004</v>
+        <v>-93.291220999999993</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F12" t="s">
         <v>250</v>
@@ -13512,65 +13511,65 @@
         <v>250</v>
       </c>
       <c r="J12">
-        <v>486</v>
+        <v>707</v>
       </c>
       <c r="K12">
-        <v>485</v>
+        <v>660</v>
       </c>
       <c r="L12" s="11">
-        <v>1.0020618556701031</v>
+        <v>1.0712121212121213</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13">
-        <v>44.969570000000097</v>
+        <v>44.918799999999997</v>
       </c>
       <c r="D13">
-        <v>-93.280825000025303</v>
+        <v>-93.269626000000002</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I13" t="s">
-        <v>248</v>
-      </c>
-      <c r="J13" s="9">
-        <v>515</v>
+        <v>250</v>
+      </c>
+      <c r="J13">
+        <v>502</v>
       </c>
       <c r="K13">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="L13" s="11">
-        <v>1.1948955916473318</v>
+        <v>1.0546218487394958</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C14">
-        <v>44.918799999999997</v>
+        <v>44.900936999999999</v>
       </c>
       <c r="D14">
-        <v>-93.269626000000002</v>
+        <v>-93.238332</v>
       </c>
       <c r="E14" t="s">
         <v>250</v>
@@ -13588,103 +13587,103 @@
         <v>250</v>
       </c>
       <c r="J14">
-        <v>502</v>
+        <v>292</v>
       </c>
       <c r="K14">
-        <v>476</v>
+        <v>284</v>
       </c>
       <c r="L14" s="11">
-        <v>1.0546218487394958</v>
+        <v>1.028169014084507</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C15">
-        <v>44.937043330000002</v>
+        <v>44.986629999999998</v>
       </c>
       <c r="D15">
-        <v>-93.243316669999999</v>
+        <v>-93.249793330000003</v>
       </c>
       <c r="E15" t="s">
         <v>251</v>
       </c>
       <c r="F15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
-      </c>
-      <c r="J15">
-        <v>834</v>
+        <v>248</v>
+      </c>
+      <c r="J15" s="9">
+        <v>697</v>
       </c>
       <c r="K15">
-        <v>863</v>
+        <v>679</v>
       </c>
       <c r="L15" s="11">
-        <v>0.96639629200463495</v>
+        <v>1.0265095729013254</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C16">
-        <v>44.993971000000002</v>
+        <v>44.932245999999999</v>
       </c>
       <c r="D16">
-        <v>-93.290335999999996</v>
+        <v>-93.205386000000004</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="9">
-        <v>337</v>
+        <v>250</v>
+      </c>
+      <c r="J16">
+        <v>486</v>
       </c>
       <c r="K16">
-        <v>655</v>
+        <v>485</v>
       </c>
       <c r="L16" s="11">
-        <v>0.51450381679389312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>209</v>
+        <v>1.0020618556701031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>282</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="C17">
-        <v>44.940440000000002</v>
+        <v>44.933200000000099</v>
       </c>
       <c r="D17">
-        <v>-93.271209999999996</v>
+        <v>-93.316475000078398</v>
       </c>
       <c r="E17" t="s">
         <v>250</v>
@@ -13693,39 +13692,39 @@
         <v>250</v>
       </c>
       <c r="G17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" t="s">
         <v>250</v>
       </c>
       <c r="I17" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J17">
-        <v>357</v>
+        <v>607</v>
       </c>
       <c r="K17">
-        <v>565</v>
+        <v>615</v>
       </c>
       <c r="L17" s="11">
-        <v>0.63185840707964602</v>
+        <v>0.98699186991869914</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C18">
-        <v>44.906469677952501</v>
+        <v>44.937043330000002</v>
       </c>
       <c r="D18">
-        <v>-93.2563534880167</v>
+        <v>-93.243316669999999</v>
       </c>
       <c r="E18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F18" t="s">
         <v>250</v>
@@ -13740,30 +13739,30 @@
         <v>250</v>
       </c>
       <c r="J18">
-        <v>656</v>
+        <v>834</v>
       </c>
       <c r="K18">
-        <v>539</v>
+        <v>863</v>
       </c>
       <c r="L18" s="11">
-        <v>1.2170686456400741</v>
+        <v>0.96639629200463495</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C19">
-        <v>44.995804999999997</v>
+        <v>44.960112000000002</v>
       </c>
       <c r="D19">
-        <v>-93.289955000000006</v>
+        <v>-93.230806999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F19" t="s">
         <v>248</v>
@@ -13772,33 +13771,33 @@
         <v>248</v>
       </c>
       <c r="H19" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I19" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J19" s="9">
-        <v>237</v>
+        <v>864</v>
       </c>
       <c r="K19">
-        <v>460</v>
+        <v>905</v>
       </c>
       <c r="L19" s="11">
-        <v>0.51521739130434785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.95469613259668507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>272</v>
+        <v>229</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="C20">
-        <v>45.010596</v>
+        <v>44.938662000000001</v>
       </c>
       <c r="D20">
-        <v>-93.298293000000001</v>
+        <v>-93.213363000000001</v>
       </c>
       <c r="E20" t="s">
         <v>250</v>
@@ -13816,30 +13815,30 @@
         <v>250</v>
       </c>
       <c r="J20">
-        <v>568</v>
+        <v>954</v>
       </c>
       <c r="K20">
-        <v>751</v>
+        <v>1016</v>
       </c>
       <c r="L20" s="11">
-        <v>0.75632490013315579</v>
+        <v>0.9389763779527559</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C21">
-        <v>44.926757170000002</v>
+        <v>44.933813999999998</v>
       </c>
       <c r="D21">
-        <v>-93.212086170000006</v>
+        <v>-93.255521000000002</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F21" t="s">
         <v>250</v>
@@ -13854,27 +13853,27 @@
         <v>250</v>
       </c>
       <c r="J21">
-        <v>249</v>
+        <v>560</v>
       </c>
       <c r="K21">
-        <v>284</v>
+        <v>598</v>
       </c>
       <c r="L21" s="11">
-        <v>0.87676056338028174</v>
+        <v>0.9364548494983278</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C22">
-        <v>44.934739669999999</v>
+        <v>44.961458999999998</v>
       </c>
       <c r="D22">
-        <v>-93.211270670000005</v>
+        <v>-93.308023000000006</v>
       </c>
       <c r="E22" t="s">
         <v>250</v>
@@ -13892,65 +13891,65 @@
         <v>250</v>
       </c>
       <c r="J22">
-        <v>224</v>
+        <v>395</v>
       </c>
       <c r="K22">
-        <v>267</v>
+        <v>431</v>
       </c>
       <c r="L22" s="11">
-        <v>0.83895131086142327</v>
+        <v>0.91647331786542918</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C23">
-        <v>44.955886999999997</v>
+        <v>45.030127</v>
       </c>
       <c r="D23">
-        <v>-93.295083000000005</v>
+        <v>-93.234599000000003</v>
       </c>
       <c r="E23" t="s">
         <v>250</v>
       </c>
       <c r="F23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
-      </c>
-      <c r="J23" s="9">
-        <v>439</v>
+        <v>250</v>
+      </c>
+      <c r="J23">
+        <v>431</v>
       </c>
       <c r="K23">
-        <v>815</v>
+        <v>485</v>
       </c>
       <c r="L23" s="11">
-        <v>0.53865030674846626</v>
+        <v>0.88865979381443294</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C24">
-        <v>45.046686000000001</v>
+        <v>44.926757170000002</v>
       </c>
       <c r="D24">
-        <v>-93.292309000000003</v>
+        <v>-93.212086170000006</v>
       </c>
       <c r="E24" t="s">
         <v>250</v>
@@ -13968,27 +13967,27 @@
         <v>250</v>
       </c>
       <c r="J24">
-        <v>383</v>
+        <v>249</v>
       </c>
       <c r="K24">
-        <v>535</v>
+        <v>284</v>
       </c>
       <c r="L24" s="11">
-        <v>0.71588785046728975</v>
+        <v>0.87676056338028174</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C25">
-        <v>44.913283999999997</v>
+        <v>44.89846</v>
       </c>
       <c r="D25">
-        <v>-93.279610000000005</v>
+        <v>-93.298940000000002</v>
       </c>
       <c r="E25" t="s">
         <v>250</v>
@@ -14006,30 +14005,30 @@
         <v>250</v>
       </c>
       <c r="J25">
-        <v>842</v>
+        <v>741</v>
       </c>
       <c r="K25">
-        <v>1135</v>
+        <v>850</v>
       </c>
       <c r="L25" s="11">
-        <v>0.74185022026431713</v>
+        <v>0.87176470588235289</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="C26">
-        <v>44.899025999999999</v>
+        <v>44.954625999999998</v>
       </c>
       <c r="D26">
-        <v>-93.295551000000003</v>
+        <v>-93.283940000000001</v>
       </c>
       <c r="E26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F26" t="s">
         <v>250</v>
@@ -14044,27 +14043,27 @@
         <v>250</v>
       </c>
       <c r="J26">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="K26">
-        <v>413</v>
+        <v>598</v>
       </c>
       <c r="L26" s="11">
-        <v>1.1331719128329298</v>
+        <v>0.86454849498327757</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C27">
-        <v>44.961458999999998</v>
+        <v>44.908298000000002</v>
       </c>
       <c r="D27">
-        <v>-93.308023000000006</v>
+        <v>-93.228891000000004</v>
       </c>
       <c r="E27" t="s">
         <v>250</v>
@@ -14082,27 +14081,27 @@
         <v>250</v>
       </c>
       <c r="J27">
-        <v>395</v>
+        <v>472</v>
       </c>
       <c r="K27">
-        <v>431</v>
+        <v>561</v>
       </c>
       <c r="L27" s="11">
-        <v>0.91647331786542918</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>281</v>
+        <v>0.84135472370766484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>237</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C28">
-        <v>44.929178999999998</v>
+        <v>44.934739669999999</v>
       </c>
       <c r="D28">
-        <v>-93.326245999999998</v>
+        <v>-93.211270670000005</v>
       </c>
       <c r="E28" t="s">
         <v>250</v>
@@ -14120,27 +14119,27 @@
         <v>250</v>
       </c>
       <c r="J28">
-        <v>541</v>
+        <v>224</v>
       </c>
       <c r="K28">
-        <v>480</v>
+        <v>267</v>
       </c>
       <c r="L28" s="11">
-        <v>1.1270833333333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>282</v>
+        <v>0.83895131086142327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>234</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C29">
-        <v>44.933200000000099</v>
+        <v>44.989092988263302</v>
       </c>
       <c r="D29">
-        <v>-93.316475000078398</v>
+        <v>-93.253517759188995</v>
       </c>
       <c r="E29" t="s">
         <v>250</v>
@@ -14158,27 +14157,27 @@
         <v>250</v>
       </c>
       <c r="J29">
-        <v>607</v>
+        <v>355</v>
       </c>
       <c r="K29">
-        <v>615</v>
+        <v>467</v>
       </c>
       <c r="L29" s="11">
-        <v>0.98699186991869914</v>
+        <v>0.76017130620985007</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C30">
-        <v>44.908298000000002</v>
+        <v>45.010596</v>
       </c>
       <c r="D30">
-        <v>-93.228891000000004</v>
+        <v>-93.298293000000001</v>
       </c>
       <c r="E30" t="s">
         <v>250</v>
@@ -14196,27 +14195,27 @@
         <v>250</v>
       </c>
       <c r="J30">
-        <v>472</v>
+        <v>568</v>
       </c>
       <c r="K30">
-        <v>561</v>
+        <v>751</v>
       </c>
       <c r="L30" s="11">
-        <v>0.84135472370766484</v>
+        <v>0.75632490013315579</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C31">
-        <v>44.900936999999999</v>
+        <v>44.913283999999997</v>
       </c>
       <c r="D31">
-        <v>-93.238332</v>
+        <v>-93.279610000000005</v>
       </c>
       <c r="E31" t="s">
         <v>250</v>
@@ -14234,27 +14233,27 @@
         <v>250</v>
       </c>
       <c r="J31">
-        <v>292</v>
+        <v>842</v>
       </c>
       <c r="K31">
-        <v>284</v>
+        <v>1135</v>
       </c>
       <c r="L31" s="11">
-        <v>1.028169014084507</v>
+        <v>0.74185022026431713</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32">
-        <v>45.015949999999997</v>
+        <v>44.941888329999998</v>
       </c>
       <c r="D32">
-        <v>-93.308940000000007</v>
+        <v>-93.283041670000003</v>
       </c>
       <c r="E32" t="s">
         <v>250</v>
@@ -14272,27 +14271,27 @@
         <v>250</v>
       </c>
       <c r="J32">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="K32">
-        <v>753</v>
+        <v>701</v>
       </c>
       <c r="L32" s="11">
-        <v>0.6440903054448871</v>
+        <v>0.738944365192582</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="C33">
-        <v>45.035468999999999</v>
+        <v>45.046686000000001</v>
       </c>
       <c r="D33">
-        <v>-93.313057000000001</v>
+        <v>-93.292309000000003</v>
       </c>
       <c r="E33" t="s">
         <v>250</v>
@@ -14310,27 +14309,27 @@
         <v>250</v>
       </c>
       <c r="J33">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="K33">
-        <v>373</v>
+        <v>535</v>
       </c>
       <c r="L33" s="11">
-        <v>1.1233243967828419</v>
+        <v>0.71588785046728975</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C34">
-        <v>44.941888329999998</v>
+        <v>45.015949999999997</v>
       </c>
       <c r="D34">
-        <v>-93.283041670000003</v>
+        <v>-93.308940000000007</v>
       </c>
       <c r="E34" t="s">
         <v>250</v>
@@ -14348,65 +14347,65 @@
         <v>250</v>
       </c>
       <c r="J34">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="K34">
-        <v>701</v>
+        <v>753</v>
       </c>
       <c r="L34" s="11">
-        <v>0.738944365192582</v>
+        <v>0.6440903054448871</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="C35">
-        <v>44.986629999999998</v>
+        <v>44.973633999999997</v>
       </c>
       <c r="D35">
-        <v>-93.249793330000003</v>
+        <v>-93.316536999999997</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J35" s="9">
-        <v>697</v>
+        <v>250</v>
+      </c>
+      <c r="J35">
+        <v>573</v>
       </c>
       <c r="K35">
-        <v>679</v>
+        <v>896</v>
       </c>
       <c r="L35" s="11">
-        <v>1.0265095729013254</v>
+        <v>0.6395089285714286</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C36">
-        <v>45.007026000000003</v>
+        <v>44.940440000000002</v>
       </c>
       <c r="D36">
-        <v>-93.290285999999995</v>
+        <v>-93.271209999999996</v>
       </c>
       <c r="E36" t="s">
         <v>250</v>
@@ -14415,74 +14414,75 @@
         <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H36" t="s">
         <v>250</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J36">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="K36">
-        <v>713</v>
+        <v>565</v>
       </c>
       <c r="L36" s="11">
-        <v>0.55259467040673216</v>
+        <v>0.63185840707964602</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="C37">
-        <v>45.021754999999999</v>
+        <v>44.987651999999997</v>
       </c>
       <c r="D37">
-        <v>-93.233928000000006</v>
+        <v>-93.294751000000005</v>
       </c>
       <c r="E37" t="s">
         <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I37" t="s">
-        <v>250</v>
-      </c>
-      <c r="J37">
-        <v>473</v>
+        <v>248</v>
+      </c>
+      <c r="J37" s="9">
+        <v>317</v>
       </c>
       <c r="K37">
-        <v>843</v>
+        <v>519</v>
       </c>
       <c r="L37" s="11">
-        <v>0.56109134045077103</v>
+        <f>J37/K37</f>
+        <v>0.61078998073217727</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C38">
-        <v>44.924546669999998</v>
+        <v>45.046551000000001</v>
       </c>
       <c r="D38">
-        <v>-93.226871669999994</v>
+        <v>-93.301199999999994</v>
       </c>
       <c r="E38" t="s">
         <v>250</v>
@@ -14500,27 +14500,27 @@
         <v>250</v>
       </c>
       <c r="J38">
-        <v>488</v>
+        <v>377</v>
       </c>
       <c r="K38">
-        <v>395</v>
+        <v>640</v>
       </c>
       <c r="L38" s="11">
-        <v>1.2354430379746835</v>
+        <v>0.58906250000000004</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C39">
-        <v>45.046551000000001</v>
+        <v>45.010775000000002</v>
       </c>
       <c r="D39">
-        <v>-93.301199999999994</v>
+        <v>-93.234095999999994</v>
       </c>
       <c r="E39" t="s">
         <v>250</v>
@@ -14538,27 +14538,27 @@
         <v>250</v>
       </c>
       <c r="J39">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="K39">
-        <v>640</v>
+        <v>582</v>
       </c>
       <c r="L39" s="11">
-        <v>0.58906250000000004</v>
+        <v>0.57388316151202745</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="C40">
-        <v>45.010775000000002</v>
+        <v>44.973945999999998</v>
       </c>
       <c r="D40">
-        <v>-93.234095999999994</v>
+        <v>-93.316967000000005</v>
       </c>
       <c r="E40" t="s">
         <v>250</v>
@@ -14576,27 +14576,27 @@
         <v>250</v>
       </c>
       <c r="J40">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="K40">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="L40" s="11">
-        <v>0.57388316151202745</v>
+        <v>0.56585365853658531</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C41">
-        <v>44.969003000000001</v>
+        <v>45.021754999999999</v>
       </c>
       <c r="D41">
-        <v>-93.214033999999998</v>
+        <v>-93.233928000000006</v>
       </c>
       <c r="E41" t="s">
         <v>250</v>
@@ -14614,27 +14614,27 @@
         <v>250</v>
       </c>
       <c r="J41">
-        <v>319</v>
+        <v>473</v>
       </c>
       <c r="K41">
-        <v>284</v>
+        <v>843</v>
       </c>
       <c r="L41" s="11">
-        <v>1.1232394366197183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>0.56109134045077103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>229</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>295</v>
+        <v>223</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="C42">
-        <v>44.938662000000001</v>
+        <v>45.007026000000003</v>
       </c>
       <c r="D42">
-        <v>-93.213363000000001</v>
+        <v>-93.290285999999995</v>
       </c>
       <c r="E42" t="s">
         <v>250</v>
@@ -14652,106 +14652,106 @@
         <v>250</v>
       </c>
       <c r="J42">
-        <v>954</v>
+        <v>394</v>
       </c>
       <c r="K42">
-        <v>1016</v>
+        <v>713</v>
       </c>
       <c r="L42" s="11">
-        <v>0.9389763779527559</v>
+        <v>0.55259467040673216</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="C43">
-        <v>44.960112000000002</v>
+        <v>44.955886999999997</v>
       </c>
       <c r="D43">
-        <v>-93.230806999999999</v>
+        <v>-93.295083000000005</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F43" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" t="s">
+        <v>249</v>
+      </c>
+      <c r="H43" t="s">
+        <v>249</v>
+      </c>
+      <c r="I43" t="s">
         <v>248</v>
       </c>
-      <c r="G43" t="s">
-        <v>248</v>
-      </c>
-      <c r="H43" t="s">
-        <v>251</v>
-      </c>
-      <c r="I43" t="s">
-        <v>251</v>
-      </c>
       <c r="J43" s="9">
-        <v>864</v>
+        <v>439</v>
       </c>
       <c r="K43">
-        <v>905</v>
+        <v>815</v>
       </c>
       <c r="L43" s="11">
-        <v>0.95469613259668507</v>
+        <v>0.53865030674846626</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="C44">
-        <v>44.999316669999999</v>
+        <v>44.953346000000003</v>
       </c>
       <c r="D44">
-        <v>-93.262895</v>
+        <v>-93.258701000000002</v>
       </c>
       <c r="E44" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I44" t="s">
         <v>248</v>
       </c>
-      <c r="J44" s="9">
-        <v>264</v>
+      <c r="J44">
+        <v>817</v>
       </c>
       <c r="K44">
-        <v>737</v>
+        <v>1533</v>
       </c>
       <c r="L44" s="11">
-        <v>0.35820895522388058</v>
+        <v>0.53294194390084804</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C45">
-        <v>44.952646999999999</v>
+        <v>44.995804999999997</v>
       </c>
       <c r="D45">
-        <v>-93.225431999999998</v>
+        <v>-93.289955000000006</v>
       </c>
       <c r="E45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F45" t="s">
         <v>248</v>
@@ -14760,71 +14760,71 @@
         <v>248</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I45" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J45" s="9">
-        <v>510</v>
+        <v>237</v>
       </c>
       <c r="K45">
-        <v>1230</v>
+        <v>460</v>
       </c>
       <c r="L45" s="11">
-        <v>0.41463414634146339</v>
+        <v>0.51521739130434785</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="C46">
-        <v>45.030127</v>
+        <v>44.993971000000002</v>
       </c>
       <c r="D46">
-        <v>-93.234599000000003</v>
+        <v>-93.290335999999996</v>
       </c>
       <c r="E46" t="s">
         <v>250</v>
       </c>
       <c r="F46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I46" t="s">
-        <v>250</v>
-      </c>
-      <c r="J46">
-        <v>431</v>
+        <v>248</v>
+      </c>
+      <c r="J46" s="9">
+        <v>337</v>
       </c>
       <c r="K46">
-        <v>485</v>
+        <v>655</v>
       </c>
       <c r="L46" s="11">
-        <v>0.88865979381443294</v>
+        <v>0.51450381679389312</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="C47">
-        <v>44.989092988263302</v>
+        <v>45.016012670000002</v>
       </c>
       <c r="D47">
-        <v>-93.253517759188995</v>
+        <v>-93.284073169999999</v>
       </c>
       <c r="E47" t="s">
         <v>250</v>
@@ -14842,92 +14842,95 @@
         <v>250</v>
       </c>
       <c r="J47">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="K47">
-        <v>467</v>
+        <v>712</v>
       </c>
       <c r="L47" s="11">
-        <v>0.76017130620985007</v>
+        <v>0.4845505617977528</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C48">
-        <v>44.954625999999998</v>
+        <v>44.952646999999999</v>
       </c>
       <c r="D48">
-        <v>-93.283940000000001</v>
+        <v>-93.225431999999998</v>
       </c>
       <c r="E48" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" t="s">
         <v>248</v>
       </c>
-      <c r="F48" t="s">
-        <v>250</v>
-      </c>
       <c r="G48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I48" t="s">
-        <v>250</v>
-      </c>
-      <c r="J48">
-        <v>517</v>
+        <v>251</v>
+      </c>
+      <c r="J48" s="9">
+        <v>510</v>
       </c>
       <c r="K48">
-        <v>598</v>
+        <v>1230</v>
       </c>
       <c r="L48" s="11">
-        <v>0.86454849498327757</v>
+        <v>0.41463414634146339</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C49">
-        <v>44.896912</v>
+        <v>44.999316669999999</v>
       </c>
       <c r="D49">
-        <v>-93.280096999999998</v>
+        <v>-93.262895</v>
       </c>
       <c r="E49" t="s">
         <v>248</v>
       </c>
       <c r="F49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H49" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I49" t="s">
-        <v>250</v>
-      </c>
-      <c r="J49">
-        <v>610</v>
+        <v>248</v>
+      </c>
+      <c r="J49" s="9">
+        <v>264</v>
       </c>
       <c r="K49">
-        <v>503</v>
+        <v>737</v>
       </c>
       <c r="L49" s="11">
-        <v>1.2127236580516898</v>
+        <v>0.35820895522388058</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:L49">
+    <sortCondition descending="1" ref="L1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/data/maindata_.xlsx
+++ b/sources/data/maindata_.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/4_queue/20200130-mpls_schools/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E0BD1-6687-3243-9B34-AE164C92F525}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5778F57-1D0F-C04C-B702-21B3F303CD82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="4280" windowWidth="29660" windowHeight="14760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17220" yWindow="2420" windowWidth="17000" windowHeight="14760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="changes" sheetId="2" r:id="rId2"/>
     <sheet name="shifts" sheetId="4" r:id="rId3"/>
     <sheet name="locations" sheetId="3" r:id="rId4"/>
+    <sheet name="source" sheetId="5" r:id="rId5"/>
+    <sheet name="layout" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="356">
   <si>
     <t>data_year</t>
   </si>
@@ -1088,6 +1090,18 @@
   </si>
   <si>
     <t>students</t>
+  </si>
+  <si>
+    <t>PK-5</t>
+  </si>
+  <si>
+    <t>PK-8</t>
+  </si>
+  <si>
+    <t>EC-5</t>
+  </si>
+  <si>
+    <t>EC-8</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1592,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1595,6 +1609,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11177,12 +11192,13 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -11191,6 +11207,27 @@
       <c r="A1" t="s">
         <v>157</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -11202,23 +11239,26 @@
       <c r="C2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>194</v>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" t="s">
+        <v>164</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -11232,23 +11272,26 @@
       <c r="C3" t="s">
         <v>181</v>
       </c>
+      <c r="D3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" t="s">
+        <v>164</v>
+      </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I3" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>164</v>
-      </c>
-      <c r="K3" t="s">
-        <v>164</v>
-      </c>
-      <c r="L3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -11261,23 +11304,26 @@
       <c r="C4" t="s">
         <v>181</v>
       </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
       <c r="H4" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="I4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
         <v>164</v>
-      </c>
-      <c r="K4" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -11290,22 +11336,25 @@
       <c r="C5" t="s">
         <v>180</v>
       </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
       <c r="H5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K5" t="s">
-        <v>164</v>
-      </c>
-      <c r="L5" t="s">
-        <v>164</v>
-      </c>
-      <c r="M5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -11319,23 +11368,26 @@
       <c r="C6" t="s">
         <v>179</v>
       </c>
-      <c r="H6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" t="s">
-        <v>179</v>
-      </c>
-      <c r="J6" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" t="s">
-        <v>164</v>
-      </c>
-      <c r="L6" t="s">
-        <v>164</v>
-      </c>
-      <c r="M6" t="s">
-        <v>164</v>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -11348,22 +11400,25 @@
       <c r="C7" t="s">
         <v>179</v>
       </c>
-      <c r="H7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" t="s">
         <v>187</v>
       </c>
+      <c r="F7" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M7" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -11377,23 +11432,26 @@
       <c r="C8" t="s">
         <v>178</v>
       </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="I8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
+      </c>
+      <c r="J8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -11406,22 +11464,25 @@
       <c r="C9" t="s">
         <v>178</v>
       </c>
+      <c r="D9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
       <c r="H9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="J9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L9" t="s">
-        <v>164</v>
-      </c>
-      <c r="M9" t="s">
         <v>164</v>
       </c>
     </row>
@@ -11435,22 +11496,19 @@
       <c r="C10" t="s">
         <v>178</v>
       </c>
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>354</v>
+      </c>
       <c r="H10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I10" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>164</v>
-      </c>
-      <c r="K10" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" t="s">
         <v>164</v>
       </c>
     </row>
@@ -11464,17 +11522,26 @@
       <c r="C11" t="s">
         <v>177</v>
       </c>
-      <c r="H11" t="s">
-        <v>191</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" t="s">
         <v>188</v>
       </c>
-      <c r="K11" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" t="s">
-        <v>164</v>
+      <c r="F11" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -11487,23 +11554,26 @@
       <c r="C12" t="s">
         <v>177</v>
       </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="H12" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="I12" t="s">
-        <v>188</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -11516,24 +11586,6 @@
       <c r="C13" t="s">
         <v>177</v>
       </c>
-      <c r="H13" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K13" t="s">
-        <v>164</v>
-      </c>
-      <c r="L13" t="s">
-        <v>162</v>
-      </c>
-      <c r="M13" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -11545,7 +11597,7 @@
       <c r="C14" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -13054,7 +13106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E41F00-6C70-C644-AABA-5158F821F649}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -14933,4 +14985,30 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE97B07E-3697-4D46-8793-B08806F25F6C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEABC34-9858-6D42-B3CD-19F250C650C0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sources/data/maindata_.xlsx
+++ b/sources/data/maindata_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/4_queue/20200130-mpls_schools/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5778F57-1D0F-C04C-B702-21B3F303CD82}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97FCB4F-A84F-F54D-A876-33E228A957A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="2420" windowWidth="17000" windowHeight="14760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="2920" windowWidth="27700" windowHeight="14760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="356">
   <si>
     <t>data_year</t>
   </si>
@@ -11630,8 +11630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C5904F-1F3B-B84B-AFDC-A4EFF7C7748B}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40:G50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12788,11 +12788,11 @@
       <c r="C40" s="8">
         <v>0.93268053855569155</v>
       </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
+      <c r="D40" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>343</v>
@@ -12800,11 +12800,11 @@
       <c r="H40" s="8">
         <v>0.88861689106487152</v>
       </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
+      <c r="I40" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -12817,11 +12817,11 @@
       <c r="C41" s="8">
         <v>0.94</v>
       </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
+      <c r="D41" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G41" t="s">
         <v>184</v>
@@ -12829,11 +12829,11 @@
       <c r="H41" s="8">
         <v>0.82</v>
       </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
+      <c r="I41" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -12846,11 +12846,11 @@
       <c r="C42" s="8">
         <v>0.87378640776699024</v>
       </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
+      <c r="D42" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G42" t="s">
         <v>170</v>
@@ -12858,11 +12858,11 @@
       <c r="H42" s="8">
         <v>0.59611650485436896</v>
       </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
+      <c r="I42" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -12875,11 +12875,11 @@
       <c r="C43" s="8">
         <v>0.98219584569732943</v>
       </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
+      <c r="D43" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G43" t="s">
         <v>190</v>
@@ -12887,11 +12887,11 @@
       <c r="H43" s="8">
         <v>0.89614243323442133</v>
       </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
+      <c r="I43" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -12904,11 +12904,11 @@
       <c r="C44" s="8">
         <v>0.90717299578059074</v>
       </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
+      <c r="D44" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G44" t="s">
         <v>167</v>
@@ -12916,11 +12916,11 @@
       <c r="H44" s="8">
         <v>0.81434599156118148</v>
       </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>0</v>
+      <c r="I44" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
@@ -12933,11 +12933,11 @@
       <c r="C45" s="8">
         <v>0.97494305239179957</v>
       </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
+      <c r="D45" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G45" t="s">
         <v>192</v>
@@ -12945,11 +12945,11 @@
       <c r="H45" s="8">
         <v>0.87471526195899774</v>
       </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
+      <c r="I45" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -12962,11 +12962,11 @@
       <c r="C46" s="8">
         <v>0.59397417503586802</v>
       </c>
-      <c r="D46" s="4">
-        <v>0</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
+      <c r="D46" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G46" t="s">
         <v>159</v>
@@ -12974,11 +12974,11 @@
       <c r="H46" s="8">
         <v>0.52654232424677183</v>
       </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
+      <c r="I46" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -12991,11 +12991,11 @@
       <c r="C47" s="8">
         <v>0.6342592592592593</v>
       </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
+      <c r="D47" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G47" t="s">
         <v>173</v>
@@ -13003,11 +13003,11 @@
       <c r="H47" s="8">
         <v>0.54166666666666663</v>
       </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
+      <c r="I47" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -13020,11 +13020,11 @@
       <c r="C48" s="8">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D48" s="4">
-        <v>0</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
+      <c r="D48" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G48" t="s">
         <v>166</v>
@@ -13032,11 +13032,11 @@
       <c r="H48" s="8">
         <v>0.70454545454545459</v>
       </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>0</v>
+      <c r="I48" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -13049,11 +13049,11 @@
       <c r="C49" s="8">
         <v>0.94313725490196076</v>
       </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
+      <c r="D49" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="G49" t="s">
         <v>183</v>
@@ -13061,11 +13061,11 @@
       <c r="H49" s="8">
         <v>0.80784313725490198</v>
       </c>
-      <c r="I49" s="4">
-        <v>0</v>
-      </c>
-      <c r="J49" s="4">
-        <v>0</v>
+      <c r="I49" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -13093,8 +13093,8 @@
       <c r="I50" s="8">
         <v>0.78719008264462809</v>
       </c>
-      <c r="J50" s="4">
-        <v>0</v>
+      <c r="J50" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -13106,8 +13106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E41F00-6C70-C644-AABA-5158F821F649}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L16" sqref="L2:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15003,7 +15003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEABC34-9858-6D42-B3CD-19F250C650C0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
